--- a/SchedulingData/static6/pso/scheduling1_15.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.66</v>
+        <v>85.64</v>
       </c>
       <c r="E2" t="n">
-        <v>24.904</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>85.64</v>
       </c>
       <c r="D3" t="n">
-        <v>52.6</v>
+        <v>159.54</v>
       </c>
       <c r="E3" t="n">
-        <v>25.44</v>
+        <v>21.776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.9</v>
+        <v>64.42</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>84.40000000000001</v>
+        <v>77.66</v>
       </c>
       <c r="E5" t="n">
-        <v>24.72</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>108.44</v>
+        <v>52.6</v>
       </c>
       <c r="E6" t="n">
-        <v>21.976</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>77.66</v>
       </c>
       <c r="D7" t="n">
-        <v>83.81999999999999</v>
+        <v>134.46</v>
       </c>
       <c r="E7" t="n">
-        <v>25.788</v>
+        <v>21.344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77.66</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.46</v>
+        <v>39.62</v>
       </c>
       <c r="E8" t="n">
-        <v>21.224</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="9">
@@ -599,93 +599,93 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="D9" t="n">
-        <v>86.40000000000001</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
-        <v>24.54</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>86.40000000000001</v>
+        <v>159.54</v>
       </c>
       <c r="D10" t="n">
-        <v>158.8</v>
+        <v>228.36</v>
       </c>
       <c r="E10" t="n">
-        <v>20.9</v>
+        <v>19.004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158.8</v>
+        <v>64.42</v>
       </c>
       <c r="D11" t="n">
-        <v>207.06</v>
+        <v>113.46</v>
       </c>
       <c r="E11" t="n">
-        <v>17.204</v>
+        <v>21.464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>83.81999999999999</v>
+        <v>134.46</v>
       </c>
       <c r="D12" t="n">
-        <v>144.06</v>
+        <v>173.04</v>
       </c>
       <c r="E12" t="n">
-        <v>22.884</v>
+        <v>18.616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>108.44</v>
+        <v>173.04</v>
       </c>
       <c r="D13" t="n">
-        <v>181.54</v>
+        <v>249.54</v>
       </c>
       <c r="E13" t="n">
-        <v>18.256</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="14">
@@ -694,74 +694,74 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>207.06</v>
+        <v>122</v>
       </c>
       <c r="D14" t="n">
-        <v>274.88</v>
+        <v>204.06</v>
       </c>
       <c r="E14" t="n">
-        <v>12.052</v>
+        <v>17.044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.6</v>
+        <v>228.36</v>
       </c>
       <c r="D15" t="n">
-        <v>130.68</v>
+        <v>309.76</v>
       </c>
       <c r="E15" t="n">
-        <v>22.712</v>
+        <v>15.464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>84.40000000000001</v>
+        <v>309.76</v>
       </c>
       <c r="D16" t="n">
-        <v>148.42</v>
+        <v>381.5</v>
       </c>
       <c r="E16" t="n">
-        <v>20.448</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>274.88</v>
+        <v>249.54</v>
       </c>
       <c r="D17" t="n">
-        <v>350.32</v>
+        <v>298.06</v>
       </c>
       <c r="E17" t="n">
-        <v>7.628</v>
+        <v>9.364000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -770,283 +770,283 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>130.68</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>178.52</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>18.568</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>144.06</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>212.5</v>
+        <v>158.2</v>
       </c>
       <c r="E19" t="n">
-        <v>19.66</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>148.42</v>
+        <v>381.5</v>
       </c>
       <c r="D20" t="n">
-        <v>215.78</v>
+        <v>440.28</v>
       </c>
       <c r="E20" t="n">
-        <v>15.352</v>
+        <v>8.632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>145.46</v>
+        <v>158.2</v>
       </c>
       <c r="D21" t="n">
-        <v>182.1</v>
+        <v>214.54</v>
       </c>
       <c r="E21" t="n">
-        <v>18.2</v>
+        <v>16.456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>350.32</v>
+        <v>214.54</v>
       </c>
       <c r="D22" t="n">
-        <v>437.72</v>
+        <v>271.78</v>
       </c>
       <c r="E22" t="n">
-        <v>3.968</v>
+        <v>13.332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>437.72</v>
+        <v>298.06</v>
       </c>
       <c r="D23" t="n">
-        <v>472.22</v>
+        <v>335.28</v>
       </c>
       <c r="E23" t="n">
-        <v>1.648</v>
+        <v>6.772</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>472.22</v>
+        <v>39.62</v>
       </c>
       <c r="D24" t="n">
-        <v>540.8200000000001</v>
+        <v>117.24</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>22.076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>182.1</v>
+        <v>113.46</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2</v>
+        <v>174.4</v>
       </c>
       <c r="E25" t="n">
-        <v>14.12</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>215.78</v>
+        <v>204.06</v>
       </c>
       <c r="D26" t="n">
-        <v>274.12</v>
+        <v>271.14</v>
       </c>
       <c r="E26" t="n">
-        <v>12.128</v>
+        <v>13.456</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>181.54</v>
+        <v>117.24</v>
       </c>
       <c r="D27" t="n">
-        <v>248.54</v>
+        <v>175.68</v>
       </c>
       <c r="E27" t="n">
-        <v>15.136</v>
+        <v>17.852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>212.5</v>
+        <v>440.28</v>
       </c>
       <c r="D28" t="n">
-        <v>264.58</v>
+        <v>509.84</v>
       </c>
       <c r="E28" t="n">
-        <v>16.072</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>178.52</v>
+        <v>175.68</v>
       </c>
       <c r="D29" t="n">
-        <v>229.86</v>
+        <v>239.78</v>
       </c>
       <c r="E29" t="n">
-        <v>14.564</v>
+        <v>15.532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>229.86</v>
+        <v>239.78</v>
       </c>
       <c r="D30" t="n">
-        <v>305.4</v>
+        <v>312.52</v>
       </c>
       <c r="E30" t="n">
-        <v>11.08</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>274.12</v>
+        <v>271.14</v>
       </c>
       <c r="D31" t="n">
-        <v>333.52</v>
+        <v>323.84</v>
       </c>
       <c r="E31" t="n">
-        <v>8.827999999999999</v>
+        <v>9.816000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>264.58</v>
+        <v>271.78</v>
       </c>
       <c r="D32" t="n">
-        <v>336.82</v>
+        <v>335.88</v>
       </c>
       <c r="E32" t="n">
-        <v>12.488</v>
+        <v>8.052</v>
       </c>
     </row>
     <row r="33">
@@ -1059,56 +1059,56 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>336.82</v>
+        <v>174.4</v>
       </c>
       <c r="D33" t="n">
-        <v>410.82</v>
+        <v>243.7</v>
       </c>
       <c r="E33" t="n">
-        <v>7.688</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>248.54</v>
+        <v>335.28</v>
       </c>
       <c r="D34" t="n">
-        <v>305.24</v>
+        <v>394.44</v>
       </c>
       <c r="E34" t="n">
-        <v>11.596</v>
+        <v>2.976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>305.24</v>
+        <v>243.7</v>
       </c>
       <c r="D35" t="n">
-        <v>378.52</v>
+        <v>316.3</v>
       </c>
       <c r="E35" t="n">
-        <v>8.348000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>234.2</v>
+        <v>312.52</v>
       </c>
       <c r="D36" t="n">
-        <v>302.7</v>
+        <v>376.02</v>
       </c>
       <c r="E36" t="n">
-        <v>11.36</v>
+        <v>8.628</v>
       </c>
     </row>
     <row r="37">
@@ -1131,93 +1131,93 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>540.8200000000001</v>
+        <v>323.84</v>
       </c>
       <c r="D37" t="n">
-        <v>577.9</v>
+        <v>372.34</v>
       </c>
       <c r="E37" t="n">
-        <v>27.492</v>
+        <v>6.096</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>378.52</v>
+        <v>316.3</v>
       </c>
       <c r="D38" t="n">
-        <v>432.44</v>
+        <v>385.3</v>
       </c>
       <c r="E38" t="n">
-        <v>5.576</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>302.7</v>
+        <v>376.02</v>
       </c>
       <c r="D39" t="n">
-        <v>350.14</v>
+        <v>419.56</v>
       </c>
       <c r="E39" t="n">
-        <v>8.236000000000001</v>
+        <v>5.404</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>305.4</v>
+        <v>385.3</v>
       </c>
       <c r="D40" t="n">
-        <v>374.56</v>
+        <v>427.9</v>
       </c>
       <c r="E40" t="n">
-        <v>7.284</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>410.82</v>
+        <v>509.84</v>
       </c>
       <c r="D41" t="n">
-        <v>487.42</v>
+        <v>560.92</v>
       </c>
       <c r="E41" t="n">
-        <v>4.128</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="42">
@@ -1226,60 +1226,60 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>432.44</v>
+        <v>560.92</v>
       </c>
       <c r="D42" t="n">
-        <v>511.52</v>
+        <v>630.34</v>
       </c>
       <c r="E42" t="n">
-        <v>2.768</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>350.14</v>
+        <v>335.88</v>
       </c>
       <c r="D43" t="n">
-        <v>409.18</v>
+        <v>384.1</v>
       </c>
       <c r="E43" t="n">
-        <v>3.972</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>487.42</v>
+        <v>419.56</v>
       </c>
       <c r="D44" t="n">
-        <v>546.14</v>
+        <v>462.56</v>
       </c>
       <c r="E44" t="n">
-        <v>1.356</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>546.14</v>
+        <v>462.56</v>
       </c>
       <c r="D45" t="n">
-        <v>620.33</v>
+        <v>526.0700000000001</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,59 +1298,59 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>374.56</v>
+        <v>372.34</v>
       </c>
       <c r="D46" t="n">
-        <v>449.6</v>
+        <v>425.5</v>
       </c>
       <c r="E46" t="n">
-        <v>3.42</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>333.52</v>
+        <v>425.5</v>
       </c>
       <c r="D47" t="n">
-        <v>427.42</v>
+        <v>517.2</v>
       </c>
       <c r="E47" t="n">
-        <v>6.508</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>409.18</v>
+        <v>517.2</v>
       </c>
       <c r="D48" t="n">
-        <v>487.94</v>
+        <v>582.74</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>27.096</v>
       </c>
     </row>
     <row r="49">
@@ -1359,93 +1359,112 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>487.94</v>
+        <v>394.44</v>
       </c>
       <c r="D49" t="n">
-        <v>572.9</v>
+        <v>480.29</v>
       </c>
       <c r="E49" t="n">
-        <v>25.164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>577.9</v>
+        <v>480.29</v>
       </c>
       <c r="D50" t="n">
-        <v>649.4</v>
+        <v>556.83</v>
       </c>
       <c r="E50" t="n">
-        <v>22.452</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>511.52</v>
+        <v>582.74</v>
       </c>
       <c r="D51" t="n">
-        <v>577.98</v>
+        <v>641.72</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>24.288</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>577.98</v>
+        <v>384.1</v>
       </c>
       <c r="D52" t="n">
-        <v>646.4</v>
+        <v>457.54</v>
       </c>
       <c r="E52" t="n">
-        <v>26.808</v>
+        <v>1.636</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>572.9</v>
+        <v>457.54</v>
       </c>
       <c r="D53" t="n">
-        <v>605.22</v>
+        <v>550.97</v>
       </c>
       <c r="E53" t="n">
-        <v>22.572</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond62</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>550.97</v>
+      </c>
+      <c r="D54" t="n">
+        <v>616.41</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26.136</v>
       </c>
     </row>
   </sheetData>
